--- a/website/DB.xlsx
+++ b/website/DB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,9 +11,8 @@
     <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Fav" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Fav" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -450,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -722,163 +721,260 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test for delete</t>
+          <t>Chicken Curry</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Indian</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Easy</t>
+          <t>Hard</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>40 Mins</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a large saucepan cook the pasta according to instructions on the packet.
-Peel and chop the onion and crush peeled garlic.
-Heat the oil in a medium saucepan and add onion and garlic.
-Gently fry over medium heat until soft.
-Add the tinned tomatoes and herbs and simmer gently for 6-8 minutes.
-Drain the pasta, add to the sauce and sprinkle the grated cheese on top.
-</t>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Heat cooking oil in a pan over medium heat. Add cumin seeds and let them splutter.
+Add finely chopped onions and sauté until golden brown.
+Add minced garlic and grated ginger, sauté for a minute until the raw smell disappears.
+Add chopped green chili and curry leaves (if using). Stir well.
+Add chopped tomatoes and cook until they become soft and the oil begins to separate from the mixture.
+Add turmeric powder, coriander powder, red chili powder, and salt to taste. Mix well and cook for a couple of minutes.
+Add the chicken pieces to the pan. Coat them well with the spice mixture.
+Cook the chicken until it's no longer pink, and the spices are well incorporated, you may need to add a little water if it becomes too dry.
+Once the chicken is cooked, add garam masala and stir.
+Garnish with fresh coriander leaves.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">200 g Canned Tomatoes (Chopped), 75 g Dried Pasta, 0.25 Medium-sized Onion (Chopped), 0.25 Garlic Clove (Minced), 0.25 Teaspoon Mixed Herbs, 0.25 Tablespoon Vegetable Oil, 20 g Grated Cheese </t>
+          <t>200g Chicken, 1 Onion (Chopped), 2 Garlic Cloves (Minced), 1 Tablespoon Ginger (Grated), 1 Green Chilli (Chopped), 10 g Curry Leaves, 1 Teaspoon Cumin Seeds, 0.5 Teaspoon Turmeric Powder, 1 Teaspoon Coriander Powder, 1 Teaspoon Red Chilli Powder, 0.5 Teaspoon Garam Masala, 2 Tablespoon Cooking Oil, 20 g Fresh Coriander Leaves (Chopped)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Vegetable Oil --&gt; Butter</t>
+          <t>Cooking Oil --&gt; Ghee, Butter</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Grated Cheese, Mixed Herbs, Garlic Clove, Onion</t>
+          <t>Red Chilli Powder, Fresh Coriander Leaves, Curry Leaves</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>steamedEggs.jpg</t>
+          <t>chickenCurry.jpg</t>
         </is>
       </c>
     </row>
     <row r="7" ht="409.6" customHeight="1">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tomato Pasta</t>
+          <t>Ban Mian (Soup)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Western</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Easy</t>
+          <t>Hard</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20 Mins</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In a large saucepan cook the pasta according to instructions on the packet.
-Peel and chop the onion and crush peeled garlic.
-Heat the oil in a medium saucepan and add onion and garlic.
-Gently fry over medium heat until soft.
-Add the tinned tomatoes and herbs and simmer gently for 6-8 minutes.
-Drain the pasta, add to the sauce and sprinkle the grated cheese on top.
-</t>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>In a frying pan, heat oil and fry anchovies until crispy then set aside. In the same pan, fry shallots until golden, set aside with oil. Boil water, add anchovy stock cube, salt, and pepper. Cook pan mee noodles, ground pork in the broth first, then add sweet leaves and egg. Transfer to a bowl, top with fried anchovies, shallots, and a tablespoon of the fried shallot oil from earlier.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">200 g Canned Tomatoes (Chopped), 75 g Dried Pasta, 0.25 Medium-sized Onion (Chopped), 0.25 Garlic Clove (Minced), 0.25 Teaspoon Mixed Herbs, 0.25 Tablespoon Vegetable Oil, 20 g Grated Cheese  </t>
+          <t>50 g Ground Pork, 0.5 Teaspoon Salt, 0.5 Teaspoon Pepper, 1 Teaspoon Cornflour, 120 ml Cooking Oil, 1 Anchovy Stock Cube, 20 g Dried Anchovies (Peeled &amp; Rinsed), 3 Shallots (Sliced Thinly), 1 Packet Fresh Pan Mee, 1 Egg, 1 Handful Of Sweet Leaves, 1.5 Litres Of Water</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Vegetable Oil --&gt; Butter</t>
+          <t>Cooking Oil --&gt; Butter, Salt --&gt; MSG, Sweet Leaves --&gt; Cabbage</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Grated Cheese, Mixed Herbs, Garlic Clove, Onion</t>
+          <t>Cornflour, Shallots, Anchovies</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>tomatoPasta.png</t>
+          <t>banMian.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ban Mian (Soup)</t>
+          <t>Chicken Wraps</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>Western</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30 Mins</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cook the chicken breast until fully cooked, you can grill or pan-cook it with your preferred seasonings. Cook the bacon until it's crispy, then, crumble or chop it into smaller pieces. Slice the lettuce, cube the tomato, slice the onion, and slice the avocado. Warm the tortilla in a pan or microwave for a few seconds to make it pliable. Add the cooked chicken, bacon, sliced lettuce, tomato cubes, onion slices, sliced avocado, and shredded cheese to the tortilla. Drizzle ranch dressing over the ingredients. Add hot sauce according to your spice preference. Fold the sides of the tortilla towards the center and then roll it up tightly from the bottom to create a wrap.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1 Tortilla(s), 20 g Chicken Breast, 30 g Lettuce (Sliced), 2 Slices of Bacon, 0.25 Tomato (Cubed), 0.5 Onion (Sliced), 0.25 Avocado (Sliced), 1.5 Tablespoon Shredded Cheese, 30 g Ranch Dressing, 1 Teaspoon Hot Sauce</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bacon --&gt; Ham, Ranch Dressing  --&gt; Mayonnaise</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Shredded Cheese, Hot Sauce, Tomato, Onion</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>chickenWrap.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tom Yum Soup</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Hard</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1 Hour</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>In a frying pan, heat oil and fry anchovies until crispy then set aside. In the same pan, fry shallots until golden, set aside with oil. Boil water, add anchovy stock cube, salt, and pepper. Cook pan mee noodles, ground pork in the broth first, then add sweet leaves and egg. Transfer to a bowl, top with fried anchovies, shallots, and a tablespoon of the fried shallot oil from earlier.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>50 g Ground Pork, 0.5 Teaspoon Salt, 0.5 Teaspoon Pepper, 1 Teaspoon Cornflour, 120 ml Cooking Oil, 1 Anchovy Stock Cube, 20 g Dried Anchovies (Peeled &amp; Rinsed), 3 Shallots (Sliced Thinly), 1 Packet Fresh Pan Mee, 1 Egg, 1 Handful Of Sweet Leaves, 1.5 Litres Of Water</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Cooking Oil --&gt; Butter, Salt --&gt; MSG, Sweet Leaves --&gt; Cabbage</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Cornflour, Shallots, Anchovies</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>banMian.jpg</t>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.5 Hours</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>In a pot, bring the chicken stock to a simmer over medium heat. Add the halved lemongrass, sliced galangal, Tom Yum chili paste, kaffir lime leaf, and halved Thai chili pepper to the simmering stock. Let it simmer for about 5-10 minutes to infuse the flavors. Add the sliced oyster mushrooms to the pot. Add the large shrimp to the pot and cook until they turn pink and opaque. Add sugar to balance the flavors. Stir in lime juice for acidity. Adjust the taste by adding more sugar, lime juice, or Tom Yum chili paste if needed. Remove the lemongrass, galangal slices, kaffir lime leaf, and Thai chili pepper halves before serving.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>240 ml Chicken Stock, 0.5 Stalk Lemongrass (Halved), 0.75 Galangal (Sliced), 10 g Tom Yum Chilli Paste, 0.5 Kaffir Lime Leaf, 3 Oyster Mushrooms, 0.25 Thai Chilli Pepper (Halved), 2 Large Shrimp, 3 g Sugar, 4 ml Lime Juice, 10 g Fresh Cilantro Leaves</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Large Shrimp --&gt; Chicken, Fish, Squid, Mussels</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Thai Chilli Pepper, Fresh Cilantro Leaves</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>tomYumSoup.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Steamed Eggs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Korean</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>45 Mins</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>In a bowl, gently beat the eggs. Do not overbeat; you want a smooth mixture without creating too many bubbles. In another bowl, mix the chicken broth, light soy sauce, sesame oil, and salt. Stir well to combine. Slowly pour the broth mixture into the beaten eggs while continuously stirring gently. For a smoother texture, you can strain the egg and broth mixture through a fine mesh sieve into a pouring jug. Pour the egg and broth mixture over the vegetables in each bowl, dividing it evenly. Place the bowls in the steamer and cover with a lid and steam over medium heat for about 10-15 minutes or until the eggs are set. After 10-15 minutes, carefully remove the steamed eggs from the steamer. Sprinkle a pinch of white pepper on top if desired.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2 Large Eggs, 240 ml Chicken Broth, 1 Tablespoon Light Soy Sauce, 1 Teaspoon Sesame Oil, 0.25 Teaspoon Salt, 10 g Green Onions (Chopped), 0.25 Teaspoon White Pepper</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Chicken Broth --&gt; Vegetable Broth</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Salt, Green Onions, White Pepper</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>steamedEggs.jpg</t>
         </is>
       </c>
     </row>
@@ -1623,148 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="A9:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Measurement</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Ingredient</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>200</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Canned Tomatoes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>75</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dried Pasta</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Medium-sized Onion</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Garlic Clove</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Teaspoon Mixed Herbs</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Tablespoon Vegetable Oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>20</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Grated Cheese</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
@@ -1800,28 +1755,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Canned Tomatoes</t>
+          <t>Chicken</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dried Pasta</t>
+          <t>Onion</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1830,13 +1785,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Medium-sized Onion</t>
+          <t>Garlic Cloves</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1845,13 +1800,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Garlic Clove</t>
+          <t>Tablespoon Ginger</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1860,37 +1815,127 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Teaspoon Mixed Herbs</t>
+          <t>Green Chilli</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>g</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tablespoon Vegetable Oil</t>
+          <t>Curry Leaves</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Teaspoon Cumin Seeds</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Teaspoon Turmeric Powder</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Teaspoon Coriander Powder</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Teaspoon Red Chilli Powder</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Teaspoon Garam Masala</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tablespoon Cooking Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>20</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Grated Cheese</t>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fresh Coriander Leaves</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/website/DB.xlsx
+++ b/website/DB.xlsx
@@ -625,17 +625,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40 Mins</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Western</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Intermediate</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>40 Mins</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -726,17 +726,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Hard</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2 Hours</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Indian</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2 Hours</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">

--- a/website/DB.xlsx
+++ b/website/DB.xlsx
@@ -13,6 +13,7 @@
     <sheet name="4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Fav" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="7" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -50,6 +51,9 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -80,6 +84,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,33 +521,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italian </t>
+          <t>Easy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Easy</t>
+          <t>20 Mins</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20 Mins</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">In a large saucepan cook the pasta according to instructions on the packet.
+          <t>In a large saucepan cook the pasta according to instructions on the packet.
 Peel and chop the onion and crush peeled garlic.
 Heat the oil in a medium saucepan and add onion and garlic.
 Gently fry over medium heat until soft.
 Add the tinned tomatoes and herbs and simmer gently for 6-8 minutes.
-Drain the pasta, add to the sauce and sprinkle the grated cheese on top.
-</t>
+Drain the pasta, add to the sauce and sprinkle the grated cheese on top.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">200 g Canned Tomatoes (Chopped), 75 g Dried Pasta, 0.25 Medium-sized Onion (Chopped), 0.25 Garlic Clove (Minced), 0.25 Teaspoon Mixed Herbs, 0.25 Tablespoon Vegetable Oil, 20 g Grated Cheese </t>
+          <t>200 g Canned Tomatoes (Chopped), 75 g Dried Pasta, 0.25 Medium-sized Onion (Chopped), 0.25 Garlic Clove (Minced), 0.25 Teaspoon Mixed Herbs, 0.25 Tablespoon Vegetable Oil, 20 g Grated Cheese</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -572,17 +576,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Easy</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30 Mins</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Chinese</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>30 Mins</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -675,19 +679,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Easy</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20 Mins</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20 Mins</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Remove the stems of the tomatoes, then cut them into bite-sized pieces. Crack the eggs into a bowl and add water (2 tablespoons per serving). Beat until the whites and yolks are well integrated. Heat cooking oil (1 tablespoon per serving) in a skillet/frying pan over high heat until very hot. Pour beaten eggs into the pan, let the bottom set, move with spatula to cook, then break into bite-sized pieces and transfer to a plate. Add remaining cooking oil to the same skillet/pan/wok. Fry sliced garlic over medium heat until fragrant (do not burn). Put in the chopped tomato. Stir-fry for 20 seconds or so. Add water (60ml per serving). Leave to cook until the tomato becomes a little mushy. Add the scrambled egg. Sprinkle salt, sugar and scallions over. Give everything a quick stir to combine.</t>
@@ -695,8 +699,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 Medium Ripe Tomatoes, 2 Eggs, 60 ml Water, 1.5 Tablespoon Cooking Oil, 1.5 Garlic Cloves (Sliced), 0.25 Teaspoon Salt, 0.5 Pinch Sugar, 0.25 Stalk of Scallions (Chopped)
-</t>
+          <t>2 Medium Ripe Tomatoes, 2 Eggs, 60 ml Water, 1.5 Tablespoon Cooking Oil, 1.5 Garlic Cloves (Sliced), 0.25 Teaspoon Salt, 0.5 Pinch Sugar, 0.25 Stalk of Scallions (Chopped)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -785,17 +788,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Hard</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Chinese</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1 Hour</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1163,7 +1166,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carrots</t>
+          <t>Carrot</t>
         </is>
       </c>
     </row>
@@ -1959,4 +1962,220 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Measurement</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Ingredient</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ground Pork</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Teaspoon Salt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Teaspoon Pepper</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Teaspoon Cornflour</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cooking Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Anchovy Stock Cube</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dried Anchovies</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Shallots</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Packet Fresh Pan Mee</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Egg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Handful Of Sweet Leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Litres Of Water</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/website/DB.xlsx
+++ b/website/DB.xlsx
@@ -14,6 +14,9 @@
     <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Fav" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="8" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -838,19 +841,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30 Mins</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Western</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Intermediate</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>30 Mins</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Cook the chicken breast until fully cooked, you can grill or pan-cook it with your preferred seasonings. Cook the bacon until it's crispy, then, crumble or chop it into smaller pieces. Slice the lettuce, cube the tomato, slice the onion, and slice the avocado. Warm the tortilla in a pan or microwave for a few seconds to make it pliable. Add the cooked chicken, bacon, sliced lettuce, tomato cubes, onion slices, sliced avocado, and shredded cheese to the tortilla. Drizzle ranch dressing over the ingredients. Add hot sauce according to your spice preference. Fold the sides of the tortilla towards the center and then roll it up tightly from the bottom to create a wrap.</t>
@@ -863,7 +866,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bacon --&gt; Ham, Ranch Dressing  --&gt; Mayonnaise</t>
+          <t>Bacon --&gt; Ham, Ranch Dressing --&gt; Mayonnaise</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -888,19 +891,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Hard</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.5 Hours</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Thai</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.5 Hours</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>In a pot, bring the chicken stock to a simmer over medium heat. Add the halved lemongrass, sliced galangal, Tom Yum chili paste, kaffir lime leaf, and halved Thai chili pepper to the simmering stock. Let it simmer for about 5-10 minutes to infuse the flavors. Add the sliced oyster mushrooms to the pot. Add the large shrimp to the pot and cook until they turn pink and opaque. Add sugar to balance the flavors. Stir in lime juice for acidity. Adjust the taste by adding more sugar, lime juice, or Tom Yum chili paste if needed. Remove the lemongrass, galangal slices, kaffir lime leaf, and Thai chili pepper halves before serving.</t>
@@ -908,7 +911,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>240 ml Chicken Stock, 0.5 Stalk Lemongrass (Halved), 0.75 Galangal (Sliced), 10 g Tom Yum Chilli Paste, 0.5 Kaffir Lime Leaf, 3 Oyster Mushrooms, 0.25 Thai Chilli Pepper (Halved), 2 Large Shrimp, 3 g Sugar, 4 ml Lime Juice, 10 g Fresh Cilantro Leaves</t>
+          <t>['240 ml Chicken Stock', '0.5 Stalk Lemongrass (Halved)', '0.75 Galangal (Sliced)', '10 g Tom Yum Chilli Paste', '0.5 Kaffir Lime Leaf', '3 Oyster Mushrooms', '0.25 Thai Chilli Pepper (Halved)', '2 Large Shrimp', '3 g Sugar', '4 ml Lime Juice', '10 g Fresh Cilantro Leaves']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -938,17 +941,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45 Mins</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Korean</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Intermediate</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>45 Mins</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -980,6 +983,393 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Measurement</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Ingredient</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chicken Stock'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Stalk Lemongrass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Galangal</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tom Yum Chilli Paste'</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Kaffir Lime Leaf'</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Oyster Mushrooms'</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Thai Chilli Pepper</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Large Shrimp'</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sugar'</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lime Juice'</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fresh Cilantro Leaves']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Measurement</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Ingredient</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tortilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chicken Breast</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lettuce</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Slices of Bacon</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Onion</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Avocado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tablespoon Shredded Cheese</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>30</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ranch Dressing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Teaspoon Hot Sauce</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2178,4 +2568,145 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Measurement</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Ingredient</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Large Eggs</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>240</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chicken Broth</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tablespoon Light Soy Sauce</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Teaspoon Sesame Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Teaspoon Salt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Green Onions</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Teaspoon White Pepper</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/website/DB.xlsx
+++ b/website/DB.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -524,17 +524,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Easy</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>20 Mins</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Italian</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,7 +570,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -579,20 +579,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Easy</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>30 Mins</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Wash the vegetables. 
 In a large non-stick skillet or wok, over medium heat, heat the oil. 
@@ -623,7 +623,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -632,17 +632,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Intermediate</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>40 Mins</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Western</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -673,7 +673,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -682,17 +682,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Easy</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>20 Mins</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Chinese</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -723,29 +723,79 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Ban Mian (Soup)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1 Hour</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>In a frying pan, heat oil and fry anchovies until crispy then set aside. In the same pan, fry shallots until golden, set aside with oil. Boil water, add anchovy stock cube, salt, and pepper. Cook pan mee noodles, ground pork in the broth first, then add sweet leaves and egg. Transfer to a bowl, top with fried anchovies, shallots, and a tablespoon of the fried shallot oil from earlier.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>50 g Ground Pork, 0.5 Teaspoon Salt, 0.5 Teaspoon Pepper, 1 Teaspoon Cornflour, 120 ml Cooking Oil, 1 Anchovy Stock Cube, 20 g Dried Anchovies (Peeled &amp; Rinsed), 3 Shallots (Sliced Thinly), 1 Packet Fresh Pan Mee, 1 Egg, 1 Handful Of Sweet Leaves, 1.5 Litres Of Water</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cooking Oil --&gt; Butter, Salt --&gt; MSG, Sweet Leaves --&gt; Cabbage</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Cornflour, Shallots, Anchovies</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>banMian.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Chicken Curry</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Indian</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Hard</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2 Hours</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Indian</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Heat cooking oil in a pan over medium heat. Add cumin seeds and let them splutter.
 Add finely chopped onions and sauté until golden brown.
@@ -759,80 +809,30 @@
 Garnish with fresh coriander leaves.</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>200g Chicken, 1 Onion (Chopped), 2 Garlic Cloves (Minced), 1 Tablespoon Ginger (Grated), 1 Green Chilli (Chopped), 10 g Curry Leaves, 1 Teaspoon Cumin Seeds, 0.5 Teaspoon Turmeric Powder, 1 Teaspoon Coriander Powder, 1 Teaspoon Red Chilli Powder, 0.5 Teaspoon Garam Masala, 2 Tablespoon Cooking Oil, 20 g Fresh Coriander Leaves (Chopped)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cooking Oil --&gt; Ghee, Butter</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Red Chilli Powder, Fresh Coriander Leaves, Curry Leaves</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>chickenCurry.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ban Mian (Soup)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Hard</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1 Hour</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>In a frying pan, heat oil and fry anchovies until crispy then set aside. In the same pan, fry shallots until golden, set aside with oil. Boil water, add anchovy stock cube, salt, and pepper. Cook pan mee noodles, ground pork in the broth first, then add sweet leaves and egg. Transfer to a bowl, top with fried anchovies, shallots, and a tablespoon of the fried shallot oil from earlier.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>50 g Ground Pork, 0.5 Teaspoon Salt, 0.5 Teaspoon Pepper, 1 Teaspoon Cornflour, 120 ml Cooking Oil, 1 Anchovy Stock Cube, 20 g Dried Anchovies (Peeled &amp; Rinsed), 3 Shallots (Sliced Thinly), 1 Packet Fresh Pan Mee, 1 Egg, 1 Handful Of Sweet Leaves, 1.5 Litres Of Water</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Cooking Oil --&gt; Butter, Salt --&gt; MSG, Sweet Leaves --&gt; Cabbage</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Cornflour, Shallots, Anchovies</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>banMian.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -841,17 +841,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Intermediate</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>30 Mins</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Western</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -882,7 +882,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -891,19 +891,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Hard</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1.5 Hours</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>In a pot, bring the chicken stock to a simmer over medium heat. Add the halved lemongrass, sliced galangal, Tom Yum chili paste, kaffir lime leaf, and halved Thai chili pepper to the simmering stock. Let it simmer for about 5-10 minutes to infuse the flavors. Add the sliced oyster mushrooms to the pot. Add the large shrimp to the pot and cook until they turn pink and opaque. Add sugar to balance the flavors. Stir in lime juice for acidity. Adjust the taste by adding more sugar, lime juice, or Tom Yum chili paste if needed. Remove the lemongrass, galangal slices, kaffir lime leaf, and Thai chili pepper halves before serving.</t>
@@ -911,7 +911,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['240 ml Chicken Stock', '0.5 Stalk Lemongrass (Halved)', '0.75 Galangal (Sliced)', '10 g Tom Yum Chilli Paste', '0.5 Kaffir Lime Leaf', '3 Oyster Mushrooms', '0.25 Thai Chilli Pepper (Halved)', '2 Large Shrimp', '3 g Sugar', '4 ml Lime Juice', '10 g Fresh Cilantro Leaves']</t>
+          <t>240 ml Chicken Stock, 0.5 Stalk Lemongrass (Halved), 0.75 Galangal (Sliced), 10 g Tom Yum Chilli Paste, 0.5 Kaffir Lime Leaf, 3 Oyster Mushrooms, 0.25 Thai Chilli Pepper (Halved), 2 Large Shrimp, 3 g Sugar, 4 ml Lime Juice, 10 g Fresh Cilantro Leaves</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -932,7 +932,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -941,17 +941,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Korean</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Intermediate</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>45 Mins</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Korean</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
